--- a/hardware/PROD/MICB.xlsx
+++ b/hardware/PROD/MICB.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29670" windowHeight="11940"/>
+    <workbookView windowWidth="21345" windowHeight="10695"/>
   </bookViews>
   <sheets>
     <sheet name="MICB" sheetId="1" r:id="rId1"/>
@@ -393,7 +393,7 @@
     <t>贴片电阻</t>
   </si>
   <si>
-    <t>R2, R3, R4, R53, R59, R67, R70, R81, R82, R83</t>
+    <t>R2, R3, R4, R53, R59, R67, R70, R81, R82, R83, R93, R94, R95, R96</t>
   </si>
   <si>
     <t>R 0603_L</t>
@@ -704,12 +704,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -719,15 +719,36 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -740,17 +761,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -764,45 +777,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -817,7 +793,23 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -825,25 +817,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -863,7 +840,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -884,7 +877,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -896,25 +1021,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -926,150 +1057,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1094,6 +1087,51 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1104,26 +1142,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1147,7 +1165,25 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1169,24 +1205,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1195,152 +1218,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1356,11 +1379,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" quotePrefix="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1431,7 +1463,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1710,13 +1742,15 @@
   <sheetPr/>
   <dimension ref="A1:E85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F66" sqref="F66"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="5" width="17.375" customWidth="1"/>
+    <col min="1" max="2" width="17.375" customWidth="1"/>
+    <col min="3" max="3" width="94.125" customWidth="1"/>
+    <col min="4" max="5" width="17.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
@@ -1737,16 +1771,16 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="3">
@@ -1754,16 +1788,16 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="3">
@@ -1771,16 +1805,16 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="3">
@@ -1788,16 +1822,16 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="3">
@@ -1805,16 +1839,16 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="3">
@@ -1822,16 +1856,16 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E7" s="3">
@@ -1839,16 +1873,16 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E8" s="3">
@@ -1856,16 +1890,16 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E9" s="3">
@@ -1873,16 +1907,16 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E10" s="3">
@@ -1890,16 +1924,16 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="7" t="s">
         <v>27</v>
       </c>
       <c r="E11" s="3">
@@ -1907,16 +1941,16 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E12" s="3">
@@ -1924,16 +1958,16 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E13" s="3">
@@ -1941,16 +1975,16 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E14" s="3">
@@ -1958,16 +1992,16 @@
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E15" s="3">
@@ -1975,16 +2009,16 @@
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="7" t="s">
         <v>27</v>
       </c>
       <c r="E16" s="3">
@@ -1992,16 +2026,16 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E17" s="3">
@@ -2009,16 +2043,16 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E18" s="3">
@@ -2026,16 +2060,16 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E19" s="3">
@@ -2043,16 +2077,16 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E20" s="3">
@@ -2060,16 +2094,16 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E21" s="3">
@@ -2077,16 +2111,16 @@
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E22" s="3">
@@ -2094,16 +2128,16 @@
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E23" s="3">
@@ -2111,16 +2145,16 @@
       </c>
     </row>
     <row r="24" ht="27" spans="1:5">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="7" t="s">
         <v>55</v>
       </c>
       <c r="E24" s="3">
@@ -2128,16 +2162,16 @@
       </c>
     </row>
     <row r="25" ht="40.5" spans="1:5">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="7" t="s">
         <v>59</v>
       </c>
       <c r="E25" s="3">
@@ -2145,16 +2179,16 @@
       </c>
     </row>
     <row r="26" ht="27" spans="1:5">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="7" t="s">
         <v>63</v>
       </c>
       <c r="E26" s="3">
@@ -2162,16 +2196,16 @@
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="7" t="s">
         <v>67</v>
       </c>
       <c r="E27" s="3">
@@ -2179,16 +2213,16 @@
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="7" t="s">
         <v>71</v>
       </c>
       <c r="E28" s="3">
@@ -2196,16 +2230,16 @@
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="7" t="s">
         <v>75</v>
       </c>
       <c r="E29" s="3">
@@ -2213,16 +2247,16 @@
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="7" t="s">
         <v>78</v>
       </c>
       <c r="E30" s="3">
@@ -2230,14 +2264,14 @@
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="7" t="s">
         <v>79</v>
       </c>
       <c r="B31" s="3"/>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="7" t="s">
         <v>81</v>
       </c>
       <c r="E31" s="3">
@@ -2245,14 +2279,14 @@
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="7" t="s">
         <v>82</v>
       </c>
       <c r="B32" s="3"/>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="7" t="s">
         <v>81</v>
       </c>
       <c r="E32" s="3">
@@ -2260,16 +2294,16 @@
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="7" t="s">
         <v>81</v>
       </c>
       <c r="E33" s="3">
@@ -2277,16 +2311,16 @@
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D34" s="7" t="s">
         <v>90</v>
       </c>
       <c r="E34" s="3">
@@ -2294,16 +2328,16 @@
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="7" t="s">
         <v>94</v>
       </c>
       <c r="E35" s="3">
@@ -2311,16 +2345,16 @@
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D36" s="7" t="s">
         <v>94</v>
       </c>
       <c r="E36" s="3">
@@ -2328,16 +2362,16 @@
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D37" s="7" t="s">
         <v>100</v>
       </c>
       <c r="E37" s="3">
@@ -2345,16 +2379,16 @@
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D38" s="7" t="s">
         <v>103</v>
       </c>
       <c r="E38" s="3">
@@ -2362,16 +2396,16 @@
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D39" s="7" t="s">
         <v>107</v>
       </c>
       <c r="E39" s="3">
@@ -2379,16 +2413,16 @@
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D40" s="7" t="s">
         <v>107</v>
       </c>
       <c r="E40" s="3">
@@ -2396,16 +2430,16 @@
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D41" s="7" t="s">
         <v>113</v>
       </c>
       <c r="E41" s="3">
@@ -2413,16 +2447,16 @@
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C42" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="D42" s="7" t="s">
         <v>117</v>
       </c>
       <c r="E42" s="3">
@@ -2430,50 +2464,50 @@
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="D43" s="7" t="s">
         <v>81</v>
       </c>
       <c r="E43" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="5" t="s">
+    <row r="44" customFormat="1" spans="1:5">
+      <c r="A44" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C44" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="D44" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="E44" s="3">
-        <v>10</v>
+      <c r="E44" s="6">
+        <v>14</v>
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C45" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="D45" s="7" t="s">
         <v>124</v>
       </c>
       <c r="E45" s="3">
@@ -2481,16 +2515,16 @@
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="C46" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="D46" s="7" t="s">
         <v>124</v>
       </c>
       <c r="E46" s="3">
@@ -2498,16 +2532,16 @@
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="C47" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="D47" s="7" t="s">
         <v>124</v>
       </c>
       <c r="E47" s="3">
@@ -2515,16 +2549,16 @@
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="5" t="s">
+      <c r="A48" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="C48" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="D48" s="5" t="s">
+      <c r="D48" s="7" t="s">
         <v>124</v>
       </c>
       <c r="E48" s="3">
@@ -2532,16 +2566,16 @@
       </c>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="5" t="s">
+      <c r="A49" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="C49" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="D49" s="5" t="s">
+      <c r="D49" s="7" t="s">
         <v>124</v>
       </c>
       <c r="E49" s="3">
@@ -2549,16 +2583,16 @@
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="5" t="s">
+      <c r="A50" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="C50" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="D50" s="7" t="s">
         <v>124</v>
       </c>
       <c r="E50" s="3">
@@ -2566,16 +2600,16 @@
       </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="5" t="s">
+      <c r="A51" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="C51" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="D51" s="5" t="s">
+      <c r="D51" s="7" t="s">
         <v>124</v>
       </c>
       <c r="E51" s="3">
@@ -2583,16 +2617,16 @@
       </c>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="5" t="s">
+      <c r="A52" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B52" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="C52" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="D52" s="5" t="s">
+      <c r="D52" s="7" t="s">
         <v>124</v>
       </c>
       <c r="E52" s="3">
@@ -2600,16 +2634,16 @@
       </c>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="5" t="s">
+      <c r="A53" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="C53" s="5" t="s">
+      <c r="C53" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="D53" s="5" t="s">
+      <c r="D53" s="7" t="s">
         <v>124</v>
       </c>
       <c r="E53" s="3">
@@ -2617,16 +2651,16 @@
       </c>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="5" t="s">
+      <c r="A54" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B54" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="C54" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="D54" s="5" t="s">
+      <c r="D54" s="7" t="s">
         <v>124</v>
       </c>
       <c r="E54" s="3">
@@ -2634,16 +2668,16 @@
       </c>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="5" t="s">
+      <c r="A55" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B55" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="C55" s="5" t="s">
+      <c r="C55" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="D55" s="5" t="s">
+      <c r="D55" s="7" t="s">
         <v>124</v>
       </c>
       <c r="E55" s="3">
@@ -2651,16 +2685,16 @@
       </c>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="5" t="s">
+      <c r="A56" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B56" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="C56" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="D56" s="5" t="s">
+      <c r="D56" s="7" t="s">
         <v>124</v>
       </c>
       <c r="E56" s="3">
@@ -2668,16 +2702,16 @@
       </c>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="5" t="s">
+      <c r="A57" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="B57" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="C57" s="5" t="s">
+      <c r="C57" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="D57" s="5" t="s">
+      <c r="D57" s="7" t="s">
         <v>124</v>
       </c>
       <c r="E57" s="3">
@@ -2685,16 +2719,16 @@
       </c>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="5" t="s">
+      <c r="A58" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B58" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="C58" s="5" t="s">
+      <c r="C58" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="D58" s="5" t="s">
+      <c r="D58" s="7" t="s">
         <v>124</v>
       </c>
       <c r="E58" s="3">
@@ -2702,16 +2736,16 @@
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="5" t="s">
+      <c r="A59" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="B59" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="C59" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="D59" s="5" t="s">
+      <c r="D59" s="7" t="s">
         <v>124</v>
       </c>
       <c r="E59" s="3">
@@ -2719,16 +2753,16 @@
       </c>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="5" t="s">
+      <c r="A60" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B60" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="C60" s="5" t="s">
+      <c r="C60" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="D60" s="5" t="s">
+      <c r="D60" s="7" t="s">
         <v>124</v>
       </c>
       <c r="E60" s="3">
@@ -2736,16 +2770,16 @@
       </c>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="5" t="s">
+      <c r="A61" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="B61" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="C61" s="5" t="s">
+      <c r="C61" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="D61" s="5" t="s">
+      <c r="D61" s="7" t="s">
         <v>124</v>
       </c>
       <c r="E61" s="3">
@@ -2753,16 +2787,16 @@
       </c>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="5" t="s">
+      <c r="A62" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="B62" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="C62" s="5" t="s">
+      <c r="C62" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="D62" s="5" t="s">
+      <c r="D62" s="7" t="s">
         <v>124</v>
       </c>
       <c r="E62" s="3">
@@ -2770,16 +2804,16 @@
       </c>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="5" t="s">
+      <c r="A63" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="B63" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="C63" s="5" t="s">
+      <c r="C63" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="D63" s="5" t="s">
+      <c r="D63" s="7" t="s">
         <v>124</v>
       </c>
       <c r="E63" s="3">
@@ -2787,16 +2821,16 @@
       </c>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="5" t="s">
+      <c r="A64" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B64" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="C64" s="5" t="s">
+      <c r="C64" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="D64" s="5" t="s">
+      <c r="D64" s="7" t="s">
         <v>124</v>
       </c>
       <c r="E64" s="3">
@@ -2804,16 +2838,16 @@
       </c>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="5" t="s">
+      <c r="A65" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="B65" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="C65" s="5" t="s">
+      <c r="C65" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="D65" s="5" t="s">
+      <c r="D65" s="7" t="s">
         <v>124</v>
       </c>
       <c r="E65" s="3">
@@ -2821,16 +2855,16 @@
       </c>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="5" t="s">
+      <c r="A66" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="B66" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="C66" s="5" t="s">
+      <c r="C66" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="D66" s="5" t="s">
+      <c r="D66" s="7" t="s">
         <v>124</v>
       </c>
       <c r="E66" s="3">
@@ -2838,16 +2872,16 @@
       </c>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="5" t="s">
+      <c r="A67" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="B67" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="C67" s="5" t="s">
+      <c r="C67" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="D67" s="5" t="s">
+      <c r="D67" s="7" t="s">
         <v>124</v>
       </c>
       <c r="E67" s="3">
@@ -2855,16 +2889,16 @@
       </c>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="5" t="s">
+      <c r="A68" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="B68" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="C68" s="5" t="s">
+      <c r="C68" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="D68" s="5" t="s">
+      <c r="D68" s="7" t="s">
         <v>124</v>
       </c>
       <c r="E68" s="3">
@@ -2872,16 +2906,16 @@
       </c>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="5" t="s">
+      <c r="A69" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="B69" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="C69" s="5" t="s">
+      <c r="C69" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="D69" s="5" t="s">
+      <c r="D69" s="7" t="s">
         <v>124</v>
       </c>
       <c r="E69" s="3">
@@ -2889,16 +2923,16 @@
       </c>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="5" t="s">
+      <c r="A70" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="B70" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="C70" s="5" t="s">
+      <c r="C70" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="D70" s="5" t="s">
+      <c r="D70" s="7" t="s">
         <v>178</v>
       </c>
       <c r="E70" s="3">
@@ -2906,14 +2940,14 @@
       </c>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" s="5" t="s">
+      <c r="A71" s="7" t="s">
         <v>179</v>
       </c>
       <c r="B71" s="3"/>
-      <c r="C71" s="5" t="s">
+      <c r="C71" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="D71" s="5" t="s">
+      <c r="D71" s="7" t="s">
         <v>181</v>
       </c>
       <c r="E71" s="3">
@@ -2921,16 +2955,16 @@
       </c>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72" s="5" t="s">
+      <c r="A72" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="B72" s="5" t="s">
+      <c r="B72" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="C72" s="5" t="s">
+      <c r="C72" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="D72" s="5" t="s">
+      <c r="D72" s="7" t="s">
         <v>185</v>
       </c>
       <c r="E72" s="3">
@@ -2938,16 +2972,16 @@
       </c>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="5" t="s">
+      <c r="A73" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="B73" s="5" t="s">
+      <c r="B73" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="C73" s="5" t="s">
+      <c r="C73" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="D73" s="5" t="s">
+      <c r="D73" s="7" t="s">
         <v>188</v>
       </c>
       <c r="E73" s="3">
@@ -2955,16 +2989,16 @@
       </c>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="5" t="s">
+      <c r="A74" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="B74" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="C74" s="5" t="s">
+      <c r="C74" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="D74" s="5" t="s">
+      <c r="D74" s="7" t="s">
         <v>192</v>
       </c>
       <c r="E74" s="3">
@@ -2972,16 +3006,16 @@
       </c>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75" s="5" t="s">
+      <c r="A75" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="B75" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="C75" s="5" t="s">
+      <c r="C75" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="D75" s="5" t="s">
+      <c r="D75" s="7" t="s">
         <v>195</v>
       </c>
       <c r="E75" s="3">
@@ -2989,16 +3023,16 @@
       </c>
     </row>
     <row r="76" spans="1:5">
-      <c r="A76" s="5" t="s">
+      <c r="A76" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="B76" s="5" t="s">
+      <c r="B76" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="C76" s="5" t="s">
+      <c r="C76" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="D76" s="5" t="s">
+      <c r="D76" s="7" t="s">
         <v>198</v>
       </c>
       <c r="E76" s="3">
@@ -3006,16 +3040,16 @@
       </c>
     </row>
     <row r="77" spans="1:5">
-      <c r="A77" s="5" t="s">
+      <c r="A77" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="B77" s="5" t="s">
+      <c r="B77" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="C77" s="5" t="s">
+      <c r="C77" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="D77" s="5" t="s">
+      <c r="D77" s="7" t="s">
         <v>198</v>
       </c>
       <c r="E77" s="3">
@@ -3023,14 +3057,14 @@
       </c>
     </row>
     <row r="78" spans="1:5">
-      <c r="A78" s="5" t="s">
+      <c r="A78" s="7" t="s">
         <v>201</v>
       </c>
       <c r="B78" s="3"/>
-      <c r="C78" s="5" t="s">
+      <c r="C78" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="D78" s="5" t="s">
+      <c r="D78" s="7" t="s">
         <v>203</v>
       </c>
       <c r="E78" s="3">
@@ -3038,14 +3072,14 @@
       </c>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79" s="5" t="s">
+      <c r="A79" s="7" t="s">
         <v>204</v>
       </c>
       <c r="B79" s="3"/>
-      <c r="C79" s="5" t="s">
+      <c r="C79" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="D79" s="5" t="s">
+      <c r="D79" s="7" t="s">
         <v>185</v>
       </c>
       <c r="E79" s="3">
@@ -3053,14 +3087,14 @@
       </c>
     </row>
     <row r="80" spans="1:5">
-      <c r="A80" s="5" t="s">
+      <c r="A80" s="7" t="s">
         <v>206</v>
       </c>
       <c r="B80" s="3"/>
-      <c r="C80" s="5" t="s">
+      <c r="C80" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="D80" s="5" t="s">
+      <c r="D80" s="7" t="s">
         <v>185</v>
       </c>
       <c r="E80" s="3">
@@ -3068,14 +3102,14 @@
       </c>
     </row>
     <row r="81" spans="1:5">
-      <c r="A81" s="5" t="s">
+      <c r="A81" s="7" t="s">
         <v>208</v>
       </c>
       <c r="B81" s="3"/>
-      <c r="C81" s="5" t="s">
+      <c r="C81" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="D81" s="5" t="s">
+      <c r="D81" s="7" t="s">
         <v>210</v>
       </c>
       <c r="E81" s="3">
@@ -3083,16 +3117,16 @@
       </c>
     </row>
     <row r="82" spans="1:5">
-      <c r="A82" s="5" t="s">
+      <c r="A82" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="B82" s="5" t="s">
+      <c r="B82" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="C82" s="5" t="s">
+      <c r="C82" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="D82" s="5" t="s">
+      <c r="D82" s="7" t="s">
         <v>214</v>
       </c>
       <c r="E82" s="3">
@@ -3100,16 +3134,16 @@
       </c>
     </row>
     <row r="83" spans="1:5">
-      <c r="A83" s="5" t="s">
+      <c r="A83" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="B83" s="5" t="s">
+      <c r="B83" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="C83" s="5" t="s">
+      <c r="C83" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="D83" s="5" t="s">
+      <c r="D83" s="7" t="s">
         <v>218</v>
       </c>
       <c r="E83" s="3">
@@ -3117,16 +3151,16 @@
       </c>
     </row>
     <row r="84" spans="1:5">
-      <c r="A84" s="5" t="s">
+      <c r="A84" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="B84" s="5" t="s">
+      <c r="B84" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="C84" s="5" t="s">
+      <c r="C84" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="D84" s="5" t="s">
+      <c r="D84" s="7" t="s">
         <v>222</v>
       </c>
       <c r="E84" s="3">
@@ -3134,16 +3168,16 @@
       </c>
     </row>
     <row r="85" spans="1:5">
-      <c r="A85" s="5" t="s">
+      <c r="A85" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="B85" s="5" t="s">
+      <c r="B85" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="C85" s="5" t="s">
+      <c r="C85" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="D85" s="5" t="s">
+      <c r="D85" s="7" t="s">
         <v>218</v>
       </c>
       <c r="E85" s="3">
